--- a/biology/Botanique/Impatiens/Impatiens.xlsx
+++ b/biology/Botanique/Impatiens/Impatiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatientes, Balsamines
 Les Impatientes ou Balsamines (Impatiens) forment un genre regroupant 800 à 900 espèces de plante à fleurs appartenant à la famille des balsaminacées.
@@ -518,9 +530,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique fait allusion au fait que la capsule de la graine arrivée à maturation explose vivement, quand on la touche, en projetant la graine à une certaine distance[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique fait allusion au fait que la capsule de la graine arrivée à maturation explose vivement, quand on la touche, en projetant la graine à une certaine distance.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens balfourii - Balsamine de Balfour (cultivée dans les jardins)
 Impatiens balsamina - Balsamine des jardins (prête à confusion : plusieurs espèces décoratives cultivées dans les jardins)
@@ -805,7 +821,7 @@
 Impatiens kirkii Hook. f. ex Oliv.
 Impatiens kleinii Wight &amp; Arn., 1835
 Impatiens komarovii Pobed.
-Impatiens konalarensis Chandrab., V. Chandras. &amp; N.C. Nair, 1984 [1985]
+Impatiens konalarensis Chandrab., V. Chandras. &amp; N.C. Nair, 1984 
 Impatiens kuepferi Eb. Fisch. &amp; Rahelivololona, 2004
 Impatiens kulamavuensis Pandurangan &amp; V.J. Nair, 1995
 Impatiens lachnosperma H. Perrier, 1934
@@ -1136,6 +1152,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1161,9 +1179,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, la balsamine symbolise l'affection inquiète ou la fragilité[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la balsamine symbolise l'affection inquiète ou la fragilité.
 </t>
         </is>
       </c>
